--- a/data/Post_Processing_Well_Status.xlsx
+++ b/data/Post_Processing_Well_Status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hydrology\Bradford_Forest_Project\Wetlands\Wetland_H20_level\Data_processed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmaze/Documents/projects/doe_pt_processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6A59E1-E7D0-463F-935B-03AD91C62CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503C0B2A-20E6-B243-BF47-410E3746827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="2190" windowWidth="18015" windowHeight="12645" tabRatio="705" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53360" yWindow="5960" windowWidth="27520" windowHeight="15660" tabRatio="705" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basin 3" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="156">
   <si>
     <t>Wetland</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>9_77</t>
-  </si>
-  <si>
-    <t>Wetlan</t>
   </si>
   <si>
     <t>9_332</t>
@@ -948,57 +945,57 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>100</v>
       </c>
-      <c r="G1" t="s">
-        <v>101</v>
-      </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1016,22 +1013,22 @@
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1042,10 +1039,10 @@
         <v>44503</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="10">
         <v>0.03</v>
@@ -1054,33 +1051,33 @@
         <v>45244</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="10">
         <v>0.03</v>
@@ -1089,19 +1086,19 @@
         <v>45244</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4">
         <v>-0.67</v>
       </c>
       <c r="K4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1124,10 +1121,10 @@
         <v>45244</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5" s="1">
         <v>-0.55000000000000004</v>
@@ -1136,7 +1133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1159,19 +1156,19 @@
         <v>45244</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6">
         <v>-0.76</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1182,10 +1179,10 @@
         <v>44853</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="10">
         <v>0.03</v>
@@ -1194,19 +1191,19 @@
         <v>45247</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7">
         <v>-0.74</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1217,10 +1214,10 @@
         <v>44853</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="10">
         <v>0.02</v>
@@ -1229,16 +1226,16 @@
         <v>45244</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8">
         <v>-0.64</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1256,51 +1253,51 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
-        <v>100</v>
-      </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>1.6E-2</v>
@@ -1321,21 +1318,21 @@
         <v>45240</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2" s="5">
         <v>-0.28999999999999998</v>
       </c>
       <c r="K2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3">
         <v>6.4000000000000001E-2</v>
@@ -1344,10 +1341,10 @@
         <v>44477</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -1356,33 +1353,33 @@
         <v>45240</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" s="5">
         <v>-0.46</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="10">
         <v>0</v>
@@ -1391,21 +1388,21 @@
         <v>45240</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4">
         <v>-0.79</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3">
         <v>6.7000000000000004E-2</v>
@@ -1426,21 +1423,21 @@
         <v>45240</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5" s="8">
         <v>-0.47</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3">
         <v>7.9000000000000001E-2</v>
@@ -1461,21 +1458,21 @@
         <v>45243</v>
       </c>
       <c r="H6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6">
         <v>-0.52</v>
       </c>
       <c r="K6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3">
         <v>8.4000000000000005E-2</v>
@@ -1484,10 +1481,10 @@
         <v>44496</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="11">
         <v>0.02</v>
@@ -1496,33 +1493,33 @@
         <v>45243</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="10">
         <v>0.01</v>
@@ -1531,33 +1528,33 @@
         <v>45243</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8">
         <v>-0.77</v>
       </c>
       <c r="K8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="7">
         <v>0.06</v>
@@ -1566,16 +1563,16 @@
         <v>45243</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J9">
         <v>-0.81</v>
       </c>
       <c r="K9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1591,51 +1588,51 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
-        <v>100</v>
-      </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3">
         <v>0.08</v>
@@ -1650,39 +1647,39 @@
         <v>44543</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2" s="1">
         <v>-0.69</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3">
         <v>0.1</v>
@@ -1691,21 +1688,21 @@
         <v>45240</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3">
         <v>-0.66</v>
       </c>
       <c r="K3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3">
         <v>5.8999999999999997E-2</v>
@@ -1714,10 +1711,10 @@
         <v>44543</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="3">
         <v>0.08</v>
@@ -1726,21 +1723,21 @@
         <v>45240</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="5">
         <v>-0.45</v>
       </c>
       <c r="K4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>2.9000000000000001E-2</v>
@@ -1749,10 +1746,10 @@
         <v>44846</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <v>0.05</v>
@@ -1761,16 +1758,16 @@
         <v>45240</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5">
         <v>-0.56999999999999995</v>
       </c>
       <c r="K5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1786,478 +1783,478 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
         <v>95</v>
       </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="B27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>59</v>
       </c>
-      <c r="B32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>60</v>
       </c>
-      <c r="B33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>61</v>
       </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>62</v>
-      </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2269,108 +2266,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>98</v>
       </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>99</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2386,70 +2383,70 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
-        <v>100</v>
-      </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="10">
         <v>0.01</v>
@@ -2458,19 +2455,19 @@
         <v>45229</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" s="10">
         <v>-0.73</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2493,19 +2490,19 @@
         <v>45229</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J3">
         <v>-0.85</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2516,10 +2513,10 @@
         <v>44503</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="11">
         <v>0.04</v>
@@ -2528,19 +2525,19 @@
         <v>45229</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J4" s="1">
         <v>-0.66</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2551,10 +2548,10 @@
         <v>44503</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="10">
         <v>0.04</v>
@@ -2563,19 +2560,19 @@
         <v>45229</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5">
         <v>-1.1000000000000001</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2598,19 +2595,19 @@
         <v>45229</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2633,19 +2630,19 @@
         <v>45229</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2668,16 +2665,16 @@
         <v>45229</v>
       </c>
       <c r="H8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J8">
         <v>-0.64</v>
       </c>
       <c r="K8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2689,53 +2686,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
-        <v>100</v>
-      </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2746,10 +2741,10 @@
         <v>44543</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>0.02</v>
@@ -2758,19 +2753,19 @@
         <v>45229</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2" s="5">
         <v>-0.32</v>
       </c>
       <c r="K2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2781,10 +2776,10 @@
         <v>44543</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3">
         <v>0.5</v>
@@ -2793,10 +2788,10 @@
         <v>45229</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" s="5">
         <v>-0.41</v>
@@ -2809,7 +2804,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2832,16 +2827,16 @@
         <v>45229</v>
       </c>
       <c r="H4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J4" s="5">
         <v>-0.49</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2857,84 +2852,84 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
-        <v>100</v>
-      </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2945,10 +2940,10 @@
         <v>44531</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3">
         <v>0.11</v>
@@ -2957,19 +2952,19 @@
         <v>45243</v>
       </c>
       <c r="H3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3">
         <v>-1.1000000000000001</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -2992,33 +2987,33 @@
         <v>45247</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="1">
         <v>-0.72</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <v>0.05</v>
@@ -3027,16 +3022,16 @@
         <v>45247</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3052,63 +3047,63 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
-        <v>100</v>
-      </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="3">
         <v>0.06</v>
@@ -3117,19 +3112,19 @@
         <v>45243</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2">
         <v>-1.1000000000000001</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -3137,13 +3132,13 @@
         <v>2E-3</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>0.02</v>
@@ -3152,16 +3147,16 @@
         <v>45243</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3">
         <v>-0.68</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3177,63 +3172,63 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>99</v>
-      </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="3">
         <v>0.09</v>
@@ -3242,33 +3237,33 @@
         <v>45243</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2">
         <v>-0.72</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>0.03</v>
@@ -3277,19 +3272,19 @@
         <v>45247</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3312,33 +3307,33 @@
         <v>45243</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="5">
         <v>-0.32</v>
       </c>
       <c r="K4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="3">
         <v>0.1</v>
@@ -3347,16 +3342,16 @@
         <v>45243</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5">
         <v>-0.52</v>
       </c>
       <c r="K5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3372,48 +3367,48 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" t="s">
-        <v>135</v>
-      </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -3424,10 +3419,10 @@
         <v>44543</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="7">
         <v>7.0000000000000007E-2</v>
@@ -3436,21 +3431,21 @@
         <v>45240</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2">
         <v>-0.57999999999999996</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0.02</v>
@@ -3459,10 +3454,10 @@
         <v>44538</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="7">
         <v>0.55000000000000004</v>
@@ -3471,21 +3466,21 @@
         <v>45240</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3">
         <v>-0.53</v>
       </c>
       <c r="K3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
       </c>
       <c r="B4" s="3">
         <v>7.5999999999999998E-2</v>
@@ -3494,10 +3489,10 @@
         <v>44544</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="10">
         <v>0.03</v>
@@ -3506,21 +3501,21 @@
         <v>45240</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4">
         <v>-0.7</v>
       </c>
       <c r="K4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>38</v>
       </c>
       <c r="B5" s="3">
         <v>0.08</v>
@@ -3529,10 +3524,10 @@
         <v>44544</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="7">
         <v>0.09</v>
@@ -3541,21 +3536,21 @@
         <v>45240</v>
       </c>
       <c r="H5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5">
         <v>-0.73</v>
       </c>
       <c r="K5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3">
         <v>6.6000000000000003E-2</v>
@@ -3564,10 +3559,10 @@
         <v>44544</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="10">
         <v>0.04</v>
@@ -3576,16 +3571,16 @@
         <v>45240</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6">
         <v>-0.84</v>
       </c>
       <c r="K6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3601,50 +3596,50 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" t="s">
-        <v>135</v>
-      </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3">
         <v>6.0999999999999999E-2</v>
@@ -3653,10 +3648,10 @@
         <v>44666</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="7">
         <v>0.06</v>
@@ -3665,21 +3660,21 @@
         <v>45244</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
       </c>
       <c r="B3" s="9">
         <v>1.111</v>
@@ -3688,10 +3683,10 @@
         <v>44482</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="10">
         <v>0.05</v>
@@ -3700,33 +3695,33 @@
         <v>45244</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3">
         <v>-0.94</v>
       </c>
       <c r="K3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="10">
         <v>0.03</v>
@@ -3735,21 +3730,21 @@
         <v>45244</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4">
         <v>-0.68</v>
       </c>
       <c r="K4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
       </c>
       <c r="B5" s="3">
         <v>1.05</v>
@@ -3758,10 +3753,10 @@
         <v>44482</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="7">
         <v>7.0000000000000007E-2</v>
@@ -3770,21 +3765,21 @@
         <v>45244</v>
       </c>
       <c r="H5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5">
         <v>-0.82</v>
       </c>
       <c r="K5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3">
         <v>1.101</v>
@@ -3793,10 +3788,10 @@
         <v>44482</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="10">
         <v>0.01</v>
@@ -3805,16 +3800,16 @@
         <v>45244</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3831,50 +3826,50 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
-        <v>100</v>
-      </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3">
         <v>7.5999999999999998E-2</v>
@@ -3883,10 +3878,10 @@
         <v>44544</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="10">
         <v>0.01</v>
@@ -3895,21 +3890,21 @@
         <v>45240</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2">
         <v>-0.7</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>4.2000000000000003E-2</v>
@@ -3930,21 +3925,21 @@
         <v>45240</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3">
         <v>-0.71</v>
       </c>
       <c r="K3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3">
         <v>1.087</v>
@@ -3965,16 +3960,16 @@
         <v>45229</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="5">
         <v>-0.43</v>
       </c>
       <c r="K4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
